--- a/doc/test表回写数据1.3.xlsx
+++ b/doc/test表回写数据1.3.xlsx
@@ -611,11 +611,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SELECT DISTINCT pgs.ANALYSIS analysis_name FROM product p, product_grade pg, prod_grade_STAGE pgs WHERE p.c_prod_type_c1 like 'CPAA' AND p.description = 'HF105F' AND pg.sampling_point = '1型/5型-005D-无/6' AND p.active = 'T' AND removed = 'F' and pgs.order_number = 1 AND p.name = pg.product AND pgs.product = p.name AND pgs.sampling_point = pg.sampling_point AND pgs.GRADE = pg.grade
-and prod_grade_STAGE.product = '企业标准'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VERSION</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -949,6 +944,42 @@
   </si>
   <si>
     <t>ANALYSIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPLICATE_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARENT_TEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORIGINAL_TEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_number,前面生成的test_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHANGED_ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_DATE_ENABLED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analysis.t_analysis_method        (前面已经的SQL已经搜索出anlysis):select * from ANALYSIS where name = '前面查出的ANALYSIS';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_ANALYSIS_METHOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analysis.COMMON_NAME       (前面已经的SQL已经搜索出anlysis):select COMMON_NAME from ANALYSIS where name = '前面查出的ANALYSIS';</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -973,39 +1004,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>REPLICATE_COUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PARENT_TEST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORIGINAL_TEST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_number,前面生成的test_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHANGED_ON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_DATE_ENABLED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>analysis.t_analysis_method        (前面已经的SQL已经搜索出anlysis):select * from ANALYSIS where name = '前面查出的ANALYSIS';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_ANALYSIS_METHOD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>analysis.COMMON_NAME       (前面已经的SQL已经搜索出anlysis):select COMMON_NAME from ANALYSIS where name = '前面查出的ANALYSIS';</t>
+    <t>SELECT DISTINCT pgs.ANALYSIS analysis_name FROM product p, product_grade pg, prod_grade_STAGE pgs WHERE p.c_prod_type_c1 like 'CPAA' AND p.description = 'HF105F' AND pg.sampling_point = '1型/5型-005D-无/6' AND p.active = 'T' AND removed = 'F' and pgs.order_number = 1 AND p.name = pg.product AND pgs.product = p.name AND pgs.sampling_point = pg.sampling_point AND pgs.GRADE = pg.grade
+and prod_grade_STAGE.product = '企业标准'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1167,8 +1167,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>117541</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1504,7 +1504,11 @@
   <dimension ref="A1:DT42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1530,52 +1534,52 @@
     </row>
     <row r="4" spans="1:124" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" t="s">
         <v>241</v>
       </c>
-      <c r="C4" t="s">
-        <v>242</v>
-      </c>
       <c r="D4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" t="s">
         <v>163</v>
-      </c>
-      <c r="G4" t="s">
-        <v>164</v>
       </c>
       <c r="H4" t="s">
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K4" t="s">
+        <v>246</v>
+      </c>
+      <c r="L4" t="s">
+        <v>166</v>
+      </c>
+      <c r="M4" t="s">
+        <v>168</v>
+      </c>
+      <c r="N4" t="s">
+        <v>169</v>
+      </c>
+      <c r="O4" t="s">
+        <v>170</v>
+      </c>
+      <c r="P4" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q4" t="s">
         <v>248</v>
-      </c>
-      <c r="L4" t="s">
-        <v>167</v>
-      </c>
-      <c r="M4" t="s">
-        <v>169</v>
-      </c>
-      <c r="N4" t="s">
-        <v>170</v>
-      </c>
-      <c r="O4" t="s">
-        <v>171</v>
-      </c>
-      <c r="P4" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>250</v>
       </c>
       <c r="R4" t="s">
         <v>3</v>
@@ -1587,7 +1591,7 @@
         <v>5</v>
       </c>
       <c r="U4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="V4" t="s">
         <v>6</v>
@@ -1605,25 +1609,25 @@
         <v>10</v>
       </c>
       <c r="AA4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB4" t="s">
         <v>11</v>
       </c>
       <c r="AC4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD4" t="s">
         <v>177</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>178</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>179</v>
       </c>
       <c r="AF4" t="s">
         <v>12</v>
       </c>
       <c r="AG4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AH4" t="s">
         <v>13</v>
@@ -1635,58 +1639,58 @@
         <v>15</v>
       </c>
       <c r="AK4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AL4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AM4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AN4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AO4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AP4" t="s">
         <v>16</v>
       </c>
       <c r="AQ4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AR4" t="s">
         <v>17</v>
       </c>
       <c r="AS4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AT4" t="s">
         <v>189</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AU4" t="s">
         <v>190</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AV4" t="s">
         <v>191</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>192</v>
       </c>
       <c r="AW4" t="s">
         <v>18</v>
       </c>
       <c r="AX4" t="s">
+        <v>192</v>
+      </c>
+      <c r="AY4" t="s">
         <v>193</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AZ4" t="s">
         <v>194</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BA4" t="s">
         <v>195</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BB4" t="s">
         <v>196</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>197</v>
       </c>
       <c r="BC4" t="s">
         <v>19</v>
@@ -1698,43 +1702,43 @@
         <v>21</v>
       </c>
       <c r="BF4" t="s">
+        <v>197</v>
+      </c>
+      <c r="BG4" t="s">
         <v>198</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BH4" t="s">
         <v>199</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BI4" t="s">
         <v>200</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BJ4" t="s">
         <v>201</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BK4" t="s">
         <v>202</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BL4" t="s">
         <v>203</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>204</v>
       </c>
       <c r="BM4" t="s">
         <v>22</v>
       </c>
       <c r="BN4" t="s">
+        <v>204</v>
+      </c>
+      <c r="BO4" t="s">
         <v>205</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>206</v>
       </c>
       <c r="BP4" t="s">
         <v>23</v>
       </c>
       <c r="BQ4" t="s">
+        <v>207</v>
+      </c>
+      <c r="BR4" t="s">
         <v>208</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>209</v>
       </c>
       <c r="BS4" t="s">
         <v>24</v>
@@ -1743,10 +1747,10 @@
         <v>25</v>
       </c>
       <c r="BU4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="BV4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BW4" t="s">
         <v>26</v>
@@ -1758,10 +1762,10 @@
         <v>28</v>
       </c>
       <c r="BZ4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="CA4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="CB4" t="s">
         <v>29</v>
@@ -1773,7 +1777,7 @@
         <v>31</v>
       </c>
       <c r="CE4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="CF4" t="s">
         <v>32</v>
@@ -1782,28 +1786,28 @@
         <v>33</v>
       </c>
       <c r="CH4" t="s">
+        <v>213</v>
+      </c>
+      <c r="CI4" t="s">
         <v>214</v>
       </c>
-      <c r="CI4" t="s">
+      <c r="CJ4" t="s">
         <v>215</v>
       </c>
-      <c r="CJ4" t="s">
-        <v>216</v>
-      </c>
       <c r="CK4" t="s">
+        <v>217</v>
+      </c>
+      <c r="CL4" t="s">
         <v>218</v>
       </c>
-      <c r="CL4" t="s">
+      <c r="CM4" t="s">
         <v>219</v>
       </c>
-      <c r="CM4" t="s">
+      <c r="CN4" t="s">
         <v>220</v>
       </c>
-      <c r="CN4" t="s">
+      <c r="CO4" t="s">
         <v>221</v>
-      </c>
-      <c r="CO4" t="s">
-        <v>222</v>
       </c>
       <c r="CP4" t="s">
         <v>34</v>
@@ -1854,13 +1858,13 @@
         <v>49</v>
       </c>
       <c r="DF4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="DG4" t="s">
+        <v>222</v>
+      </c>
+      <c r="DH4" t="s">
         <v>223</v>
-      </c>
-      <c r="DH4" t="s">
-        <v>224</v>
       </c>
       <c r="DI4" t="s">
         <v>159</v>
@@ -1869,31 +1873,31 @@
         <v>50</v>
       </c>
       <c r="DK4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="DL4" t="s">
+        <v>224</v>
+      </c>
+      <c r="DM4" t="s">
         <v>225</v>
       </c>
-      <c r="DM4" t="s">
+      <c r="DN4" t="s">
         <v>226</v>
       </c>
-      <c r="DN4" t="s">
+      <c r="DO4" t="s">
         <v>227</v>
       </c>
-      <c r="DO4" t="s">
+      <c r="DP4" t="s">
         <v>228</v>
       </c>
-      <c r="DP4" t="s">
+      <c r="DQ4" t="s">
         <v>229</v>
-      </c>
-      <c r="DQ4" t="s">
-        <v>230</v>
       </c>
       <c r="DR4" t="s">
         <v>51</v>
       </c>
       <c r="DS4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="DT4" t="s">
         <v>52</v>
@@ -4501,7 +4505,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:124" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:124" s="1" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>96</v>
       </c>
@@ -4512,10 +4516,10 @@
         <v>120</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>162</v>
+        <v>256</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9">
@@ -4525,7 +4529,7 @@
         <v>99</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>121</v>
@@ -4534,7 +4538,7 @@
         <v>123</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>127</v>
@@ -4549,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="R14" s="10" t="s">
         <v>99</v>
@@ -4561,7 +4565,7 @@
         <v>99</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="V14" s="10" t="s">
         <v>99</v>
@@ -4579,7 +4583,7 @@
         <v>99</v>
       </c>
       <c r="AA14" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB14" s="10" t="s">
         <v>99</v>
@@ -4597,7 +4601,7 @@
         <v>99</v>
       </c>
       <c r="AG14" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AH14" s="10" t="s">
         <v>99</v>
@@ -4609,25 +4613,25 @@
         <v>99</v>
       </c>
       <c r="AK14" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AL14" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AM14" s="9" t="s">
         <v>125</v>
       </c>
       <c r="AN14" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AO14" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AP14" s="10" t="s">
         <v>99</v>
       </c>
       <c r="AQ14" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AR14" s="10" t="s">
         <v>99</v>
@@ -4648,10 +4652,10 @@
         <v>99</v>
       </c>
       <c r="AX14" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AY14" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AZ14" s="9" t="s">
         <v>103</v>
@@ -4705,7 +4709,7 @@
         <v>99</v>
       </c>
       <c r="BQ14" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BR14" s="9">
         <v>0</v>
@@ -4717,7 +4721,7 @@
         <v>99</v>
       </c>
       <c r="BU14" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="BV14" s="9">
         <v>0</v>
@@ -4732,7 +4736,7 @@
         <v>99</v>
       </c>
       <c r="BZ14" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="CA14" s="9" t="s">
         <v>125</v>
@@ -4762,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="CJ14" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="CK14" s="9">
         <v>0</v>
@@ -4828,7 +4832,7 @@
         <v>99</v>
       </c>
       <c r="DF14" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="DG14" s="9">
         <v>0</v>
@@ -4837,7 +4841,7 @@
         <v>103</v>
       </c>
       <c r="DI14" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="DJ14" s="10" t="s">
         <v>99</v>
@@ -4852,7 +4856,7 @@
         <v>103</v>
       </c>
       <c r="DN14" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="DO14" s="9">
         <v>0</v>
@@ -5329,10 +5333,10 @@
         <v>119</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F23" s="9">
         <v>1</v>
@@ -5647,7 +5651,7 @@
         <v>99</v>
       </c>
       <c r="DF23" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="DG23" s="9">
         <v>0</v>
